--- a/data/case1/14/Plm2_13.xlsx
+++ b/data/case1/14/Plm2_13.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.10393850992561227</v>
+        <v>-0.10122516985340724</v>
       </c>
       <c r="B1" s="0">
-        <v>0.10383835822455012</v>
+        <v>0.10112247416962816</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.057728949360065229</v>
+        <v>-0.055012127821452594</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0574770070669679</v>
+        <v>0.054754468552287605</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.084771145720171859</v>
+        <v>0.048178707084115757</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.084990896049706777</v>
+        <v>-0.04824299100872409</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.19900109684797229</v>
+        <v>-0.23575105850395772</v>
       </c>
       <c r="B4" s="0">
-        <v>0.19801597068138932</v>
+        <v>0.23441798158646421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.19201597118421887</v>
+        <v>-0.22841798208705821</v>
       </c>
       <c r="B5" s="0">
-        <v>0.19002804523701933</v>
+        <v>0.22569808510708356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.10479739069551863</v>
+        <v>-0.10938910939672919</v>
       </c>
       <c r="B6" s="0">
-        <v>0.1046638318375539</v>
+        <v>0.10920959081280746</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.084663832456971733</v>
+        <v>-0.089209591410506661</v>
       </c>
       <c r="B7" s="0">
-        <v>0.084332033855273991</v>
+        <v>0.088756962029750142</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.06433203448173419</v>
+        <v>-0.06875696263328912</v>
       </c>
       <c r="B8" s="0">
-        <v>0.064036906834237683</v>
+        <v>0.068365534608057388</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.058036907375201174</v>
+        <v>-0.06236553514481713</v>
       </c>
       <c r="B9" s="0">
-        <v>0.057783658200992072</v>
+        <v>0.062032231937378057</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.050513018734179127</v>
+        <v>-0.056032232481882716</v>
       </c>
       <c r="B10" s="0">
-        <v>0.050484941659590277</v>
+        <v>0.055984743502428103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.04598494219898086</v>
+        <v>-0.05148474403984693</v>
       </c>
       <c r="B11" s="0">
-        <v>0.04593498729660439</v>
+        <v>0.051404383320321045</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.039934987848023074</v>
+        <v>-0.045404383867382325</v>
       </c>
       <c r="B12" s="0">
-        <v>0.039777799660189572</v>
+        <v>0.045154728350481399</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.033777800219355392</v>
+        <v>-0.039154728905495872</v>
       </c>
       <c r="B13" s="0">
-        <v>0.033734899978091981</v>
+        <v>0.039086786850258015</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.021734900579863492</v>
+        <v>-0.027086787439746907</v>
       </c>
       <c r="B14" s="0">
-        <v>0.021707823376169166</v>
+        <v>0.027053985319748897</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.015707823939195009</v>
+        <v>-0.021053985878690895</v>
       </c>
       <c r="B15" s="0">
-        <v>0.015683041515159424</v>
+        <v>0.021028171092475567</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0096830420796125694</v>
+        <v>-0.015028171652957667</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0096462020722687392</v>
+        <v>0.015004528111584481</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0036462026383832224</v>
+        <v>-0.0090045286741560204</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0036261371860204505</v>
+        <v>0.008999999420990612</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036109409384447844</v>
+        <v>-0.036110346859878462</v>
       </c>
       <c r="B18" s="0">
-        <v>0.03609636106186187</v>
+        <v>0.036096577391980134</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096361575372097</v>
+        <v>-0.027096577898665153</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013451990243187</v>
+        <v>0.02701368664391568</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013452508391481</v>
+        <v>-0.018013687154645908</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004213176290307</v>
+        <v>0.018004279716734573</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042136951193896</v>
+        <v>-0.0090042802279866052</v>
       </c>
       <c r="B21" s="0">
-        <v>0.008999999480627352</v>
+        <v>0.0089999994884486512</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.1332481533040486</v>
+        <v>-0.093933176145352348</v>
       </c>
       <c r="B22" s="0">
-        <v>0.13273867305661291</v>
+        <v>0.093624893454542502</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.12373867358041757</v>
+        <v>-0.084624893967234271</v>
       </c>
       <c r="B23" s="0">
-        <v>0.12286096455100726</v>
+        <v>0.084124893653477528</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042125177842346595</v>
+        <v>-0.042124894350685338</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999236508323</v>
+        <v>0.041999999299422441</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.079230655064357336</v>
+        <v>-0.077798689490116146</v>
       </c>
       <c r="B25" s="0">
-        <v>0.079141483957968717</v>
+        <v>0.07772081778135842</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.073141484482238894</v>
+        <v>-0.071720818302999589</v>
       </c>
       <c r="B26" s="0">
-        <v>0.073032806700044972</v>
+        <v>0.071626672117883317</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.067032807226494739</v>
+        <v>-0.065626672641213801</v>
       </c>
       <c r="B27" s="0">
-        <v>0.066682404147698549</v>
+        <v>0.065326030645288746</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.060682404683097602</v>
+        <v>-0.059326031176412997</v>
       </c>
       <c r="B28" s="0">
-        <v>0.060462022645654478</v>
+        <v>0.059138700843935688</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.048462023227481055</v>
+        <v>-0.047138701412329453</v>
       </c>
       <c r="B29" s="0">
-        <v>0.048377059622225715</v>
+        <v>0.047064582734735794</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042163458593902359</v>
+        <v>-0.037855992536477423</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042018689773871909</v>
+        <v>0.037762205306250074</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027018690383863841</v>
+        <v>-0.027019079977540272</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000632559328608</v>
+        <v>0.027000796273879857</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060006332105331239</v>
+        <v>-0.0060007968972168868</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999994494308595</v>
+        <v>0.0059999994570194559</v>
       </c>
     </row>
   </sheetData>
